--- a/BackTest/2020-01-26 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-26 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1408,7 +1408,7 @@
         <v>-2394.6857</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1268.6028</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1268.6028</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1268.6028</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1446.7266</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-4674.212</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-6828.4758</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-6828.4758</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-5462.44142699</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-6483.46982699</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-5974.54112699</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-6651.368726989999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-4701.958326989999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-4701.958326989999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-4701.958326989999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-4701.958326989999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-4701.958326989999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-4701.958326989999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-4701.958326989999</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-4701.958326989999</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-4790.985726989999</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-4790.985726989999</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,14 +12331,10 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>217</v>
-      </c>
-      <c r="J362" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
@@ -12368,19 +12364,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>217</v>
-      </c>
-      <c r="J363" t="n">
-        <v>217</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12409,19 +12397,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>217</v>
-      </c>
-      <c r="J364" t="n">
-        <v>217</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12450,14 +12430,10 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>217</v>
-      </c>
-      <c r="J365" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
@@ -12487,19 +12463,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>217</v>
-      </c>
-      <c r="J366" t="n">
-        <v>217</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12528,19 +12496,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="n">
-        <v>217</v>
-      </c>
-      <c r="J367" t="n">
-        <v>217</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12569,14 +12529,10 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>217</v>
-      </c>
-      <c r="J368" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
@@ -12606,19 +12562,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>217</v>
-      </c>
-      <c r="J369" t="n">
-        <v>217</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12647,19 +12595,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
-        <v>217</v>
-      </c>
-      <c r="J370" t="n">
-        <v>217</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12688,14 +12628,10 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>217</v>
-      </c>
-      <c r="J371" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
@@ -12725,19 +12661,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>217</v>
-      </c>
-      <c r="J372" t="n">
-        <v>217</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12766,19 +12694,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>217</v>
-      </c>
-      <c r="J373" t="n">
-        <v>217</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12807,14 +12727,10 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
-        <v>217</v>
-      </c>
-      <c r="J374" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
@@ -12844,19 +12760,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="n">
-        <v>217</v>
-      </c>
-      <c r="J375" t="n">
-        <v>217</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12885,19 +12793,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="n">
-        <v>217</v>
-      </c>
-      <c r="J376" t="n">
-        <v>217</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12926,14 +12826,10 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>217</v>
-      </c>
-      <c r="J377" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
@@ -12963,19 +12859,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="n">
-        <v>217</v>
-      </c>
-      <c r="J378" t="n">
-        <v>217</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13004,19 +12892,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
-      </c>
-      <c r="I379" t="n">
-        <v>217</v>
-      </c>
-      <c r="J379" t="n">
-        <v>217</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13045,14 +12925,10 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="n">
-        <v>217</v>
-      </c>
-      <c r="J380" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
@@ -13082,19 +12958,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="n">
-        <v>217</v>
-      </c>
-      <c r="J381" t="n">
-        <v>217</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13123,19 +12991,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="n">
-        <v>217</v>
-      </c>
-      <c r="J382" t="n">
-        <v>217</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13164,14 +13024,10 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="n">
-        <v>217</v>
-      </c>
-      <c r="J383" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
@@ -13201,19 +13057,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>217</v>
-      </c>
-      <c r="J384" t="n">
-        <v>217</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13242,19 +13090,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>217</v>
-      </c>
-      <c r="J385" t="n">
-        <v>217</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13283,14 +13123,10 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>217</v>
-      </c>
-      <c r="J386" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
@@ -13320,19 +13156,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>217</v>
-      </c>
-      <c r="J387" t="n">
-        <v>217</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13361,19 +13189,11 @@
         <v>-12283.78112699</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>217</v>
-      </c>
-      <c r="J388" t="n">
-        <v>217</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13402,19 +13222,11 @@
         <v>-11375.75602699</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>217</v>
-      </c>
-      <c r="J389" t="n">
-        <v>217</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13443,19 +13255,11 @@
         <v>-11553.82902699</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="J390" t="n">
-        <v>217</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13484,19 +13288,11 @@
         <v>-11553.82902699</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>217</v>
-      </c>
-      <c r="J391" t="n">
-        <v>217</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13525,19 +13321,11 @@
         <v>-11553.82902699</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>217</v>
-      </c>
-      <c r="J392" t="n">
-        <v>217</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13566,19 +13354,11 @@
         <v>-11553.82902699</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>217</v>
-      </c>
-      <c r="J393" t="n">
-        <v>217</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13607,19 +13387,11 @@
         <v>-11553.82902699</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>217</v>
-      </c>
-      <c r="J394" t="n">
-        <v>217</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13648,19 +13420,11 @@
         <v>-11553.82902699</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>217</v>
-      </c>
-      <c r="J395" t="n">
-        <v>217</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13689,19 +13453,11 @@
         <v>-11553.82902699</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="n">
-        <v>217</v>
-      </c>
-      <c r="J396" t="n">
-        <v>217</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13730,19 +13486,11 @@
         <v>-11553.82902699</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="n">
-        <v>217</v>
-      </c>
-      <c r="J397" t="n">
-        <v>217</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13771,19 +13519,11 @@
         <v>-11553.82902699</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="n">
-        <v>217</v>
-      </c>
-      <c r="J398" t="n">
-        <v>217</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13812,19 +13552,11 @@
         <v>-11553.82902699</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>217</v>
-      </c>
-      <c r="J399" t="n">
-        <v>217</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13853,19 +13585,11 @@
         <v>-11553.82902699</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>217</v>
-      </c>
-      <c r="J400" t="n">
-        <v>217</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13894,19 +13618,11 @@
         <v>-11553.82902699</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>217</v>
-      </c>
-      <c r="J401" t="n">
-        <v>217</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13935,19 +13651,11 @@
         <v>-11553.82902699</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>217</v>
-      </c>
-      <c r="J402" t="n">
-        <v>217</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13976,19 +13684,11 @@
         <v>-11553.82902699</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>217</v>
-      </c>
-      <c r="J403" t="n">
-        <v>217</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14017,19 +13717,11 @@
         <v>-11224.73762699</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
-      </c>
-      <c r="I404" t="n">
-        <v>217</v>
-      </c>
-      <c r="J404" t="n">
-        <v>217</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14058,19 +13750,11 @@
         <v>-11224.73762699</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
-      </c>
-      <c r="I405" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="J405" t="n">
-        <v>217</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14099,19 +13783,13 @@
         <v>-11224.73762699</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>217</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
-        <v>0.9954608294930875</v>
+        <v>1</v>
       </c>
       <c r="M406" t="inlineStr"/>
     </row>
@@ -14138,17 +13816,11 @@
         <v>-11224.73762699</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14177,14 +13849,10 @@
         <v>-11224.73762699</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
-      </c>
-      <c r="I408" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="J408" t="n">
-        <v>217.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
@@ -14214,19 +13882,11 @@
         <v>-11224.73762699</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="J409" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14255,19 +13915,11 @@
         <v>-11224.73762699</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="J410" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14296,14 +13948,10 @@
         <v>-11224.73762699</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="J411" t="n">
-        <v>217.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
@@ -14333,19 +13981,11 @@
         <v>-11224.73762699</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="J412" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14374,19 +14014,11 @@
         <v>-11224.73762699</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="J413" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14415,14 +14047,10 @@
         <v>-11224.73762699</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="J414" t="n">
-        <v>217.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
@@ -14452,19 +14080,11 @@
         <v>-9474.507026989997</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="J415" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14493,19 +14113,11 @@
         <v>-9474.507026989997</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>217.2</v>
-      </c>
-      <c r="J416" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14534,19 +14146,11 @@
         <v>-7049.400526989997</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>217.2</v>
-      </c>
-      <c r="J417" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14575,17 +14179,11 @@
         <v>-5799.669126989997</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14614,17 +14212,11 @@
         <v>-7518.699026989998</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14653,17 +14245,11 @@
         <v>-7518.699026989998</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14692,17 +14278,11 @@
         <v>-8878.137926989999</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14731,17 +14311,11 @@
         <v>-10514.99412699</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14770,17 +14344,11 @@
         <v>-8425.68022699</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14809,17 +14377,11 @@
         <v>-8425.68022699</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14848,17 +14410,11 @@
         <v>-8425.68022699</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14887,19 +14443,13 @@
         <v>-8425.68022699</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
-        <v>0.9963818516812529</v>
+        <v>1</v>
       </c>
       <c r="M426" t="inlineStr"/>
     </row>
@@ -14926,7 +14476,7 @@
         <v>-8425.68022699</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14959,7 +14509,7 @@
         <v>-8425.68022699</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14992,7 +14542,7 @@
         <v>-8425.68022699</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15223,7 +14773,7 @@
         <v>3221.282673010001</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15256,7 +14806,7 @@
         <v>5086.184373010001</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15289,7 +14839,7 @@
         <v>3222.742073010001</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15322,7 +14872,7 @@
         <v>8218.783273010002</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15355,7 +14905,7 @@
         <v>2540.275573010002</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15388,7 +14938,7 @@
         <v>-2160.046726989998</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15421,7 +14971,7 @@
         <v>-2160.046726989998</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15454,7 +15004,7 @@
         <v>-699.3740269899981</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15487,7 +15037,7 @@
         <v>-1574.163326989998</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15520,7 +15070,7 @@
         <v>3597.643573010002</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15652,7 +15202,7 @@
         <v>5775.695273010002</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15685,7 +15235,7 @@
         <v>5775.695273010002</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15751,7 +15301,7 @@
         <v>-12391.78872699</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15784,7 +15334,7 @@
         <v>-9748.071926989998</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16048,7 +15598,7 @@
         <v>-12194.90322699</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16081,7 +15631,7 @@
         <v>-12194.90322699</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16114,7 +15664,7 @@
         <v>-12194.90322699</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16147,7 +15697,7 @@
         <v>-13553.22352699</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16180,7 +15730,7 @@
         <v>-13553.22352699</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16213,7 +15763,7 @@
         <v>-17568.80672699</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16246,7 +15796,7 @@
         <v>-15485.70432699</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16477,7 +16027,7 @@
         <v>-19003.31562699</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16510,7 +16060,7 @@
         <v>-19003.31562699</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16543,7 +16093,7 @@
         <v>-19003.31562699</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16576,7 +16126,7 @@
         <v>-21840.57742699</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16609,7 +16159,7 @@
         <v>-23166.88462699</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16642,7 +16192,7 @@
         <v>-23166.88462699</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18655,11 +18205,17 @@
         <v>-68723.83812698998</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>215.4</v>
+      </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18688,7 +18244,7 @@
         <v>-69694.12512698998</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>215.3</v>
@@ -18696,7 +18252,7 @@
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L541" t="n">
@@ -18727,9 +18283,11 @@
         <v>-72047.12122698998</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>215.2</v>
+      </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
@@ -18764,7 +18322,7 @@
         <v>-72047.12122698998</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>215.1</v>
@@ -18803,7 +18361,7 @@
         <v>-65847.33482698999</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I544" t="n">
         <v>215.1</v>
@@ -18842,11 +18400,9 @@
         <v>-66551.94522698999</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
@@ -18918,9 +18474,11 @@
         <v>-62317.28102698999</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>215.5</v>
+      </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -18992,7 +18550,7 @@
         <v>-62317.28102698999</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>215.6</v>
@@ -20437,11 +19995,9 @@
         <v>-62755.37592698998</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
-      </c>
-      <c r="I588" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -20476,11 +20032,9 @@
         <v>-62755.37592698998</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
-      </c>
-      <c r="I589" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -20552,11 +20106,9 @@
         <v>-62755.37592698998</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
-      </c>
-      <c r="I591" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -20591,11 +20143,9 @@
         <v>-62755.37592698998</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
-      </c>
-      <c r="I592" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -20630,11 +20180,9 @@
         <v>-62755.37592698998</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
-      </c>
-      <c r="I593" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -20669,11 +20217,9 @@
         <v>-62755.37592698998</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
-      </c>
-      <c r="I594" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -20708,11 +20254,9 @@
         <v>-62755.37592698998</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
-      </c>
-      <c r="I595" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -20747,11 +20291,9 @@
         <v>-62755.37592698998</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
-      </c>
-      <c r="I596" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
@@ -20786,11 +20328,9 @@
         <v>-61697.87532698998</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
-      </c>
-      <c r="I597" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
@@ -20825,11 +20365,9 @@
         <v>-63168.09502698998</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
-      </c>
-      <c r="I598" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -20864,11 +20402,9 @@
         <v>-63168.09502698998</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
-      </c>
-      <c r="I599" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -20903,11 +20439,9 @@
         <v>-63168.09502698998</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
-      </c>
-      <c r="I600" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -20942,11 +20476,9 @@
         <v>-63168.09502698998</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
-      </c>
-      <c r="I601" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -20981,11 +20513,9 @@
         <v>-63168.09502698998</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -21020,11 +20550,9 @@
         <v>-63168.09502698998</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
-      </c>
-      <c r="I603" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -21059,11 +20587,9 @@
         <v>-63168.09502698998</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
-      </c>
-      <c r="I604" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -21098,11 +20624,9 @@
         <v>-63168.09502698998</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
-      </c>
-      <c r="I605" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -21137,11 +20661,9 @@
         <v>-63168.09502698998</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
-      </c>
-      <c r="I606" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -21176,11 +20698,9 @@
         <v>-63168.09502698998</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
-      </c>
-      <c r="I607" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -21215,11 +20735,9 @@
         <v>-63168.09502698998</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
-      </c>
-      <c r="I608" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -21254,11 +20772,9 @@
         <v>-66045.69172698999</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
-      </c>
-      <c r="I609" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -21293,11 +20809,9 @@
         <v>-66045.69172698999</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
-      </c>
-      <c r="I610" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -21332,11 +20846,9 @@
         <v>-66045.69172698999</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
-      </c>
-      <c r="I611" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -21371,11 +20883,9 @@
         <v>-66045.69172698999</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
-      </c>
-      <c r="I612" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -21410,11 +20920,9 @@
         <v>-66045.69172698999</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -21449,11 +20957,9 @@
         <v>-66045.69172698999</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
-      </c>
-      <c r="I614" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -21488,11 +20994,9 @@
         <v>-66045.69172698999</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
-      </c>
-      <c r="I615" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -21527,11 +21031,9 @@
         <v>-66045.69172698999</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
-      </c>
-      <c r="I616" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -21603,11 +21105,9 @@
         <v>-60851.63182698999</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
-      </c>
-      <c r="I618" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -21679,11 +21179,9 @@
         <v>-60851.63182698999</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
-      </c>
-      <c r="I620" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -21718,11 +21216,9 @@
         <v>-60851.63182698999</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
-      </c>
-      <c r="I621" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -21757,11 +21253,9 @@
         <v>-60851.63182698999</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
-      </c>
-      <c r="I622" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -21796,11 +21290,9 @@
         <v>-60851.63182698999</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
-      </c>
-      <c r="I623" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -21835,11 +21327,9 @@
         <v>-60851.63182698999</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
-      </c>
-      <c r="I624" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -21948,11 +21438,9 @@
         <v>-60292.46272698999</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
-      </c>
-      <c r="I627" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21987,11 +21475,9 @@
         <v>-56197.18622698999</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
-      </c>
-      <c r="I628" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -22026,11 +21512,9 @@
         <v>-58012.88392698998</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
-      </c>
-      <c r="I629" t="n">
-        <v>215.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -22065,11 +21549,9 @@
         <v>-62699.97442698998</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
-      </c>
-      <c r="I630" t="n">
-        <v>215.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -22104,11 +21586,9 @@
         <v>-62699.97442698998</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
-      </c>
-      <c r="I631" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -22143,11 +21623,9 @@
         <v>-62699.97442698998</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
-      </c>
-      <c r="I632" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -22182,11 +21660,9 @@
         <v>-62699.97442698998</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
-      </c>
-      <c r="I633" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -22221,11 +21697,9 @@
         <v>-62699.97442698998</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
-      </c>
-      <c r="I634" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -22260,11 +21734,9 @@
         <v>-62699.97442698998</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
-      </c>
-      <c r="I635" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -22299,11 +21771,9 @@
         <v>-62699.97442698998</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
-      </c>
-      <c r="I636" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -22338,11 +21808,9 @@
         <v>-62699.97442698998</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
-      </c>
-      <c r="I637" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -22377,11 +21845,9 @@
         <v>-62699.97442698998</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
-      </c>
-      <c r="I638" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -22416,11 +21882,9 @@
         <v>-62699.97442698998</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
-      </c>
-      <c r="I639" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
@@ -22566,11 +22030,9 @@
         <v>-62699.97442698998</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
-      </c>
-      <c r="I643" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -22605,11 +22067,9 @@
         <v>-62699.97442698998</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
-      </c>
-      <c r="I644" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -22644,11 +22104,9 @@
         <v>-60346.43112698998</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
-      </c>
-      <c r="I645" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -22683,11 +22141,9 @@
         <v>-62099.49022698998</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
-      </c>
-      <c r="I646" t="n">
-        <v>215.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -22759,11 +22215,9 @@
         <v>-62099.49022698998</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
-      </c>
-      <c r="I648" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -22798,11 +22252,9 @@
         <v>-62099.49022698998</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
-      </c>
-      <c r="I649" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -22837,11 +22289,9 @@
         <v>-60192.86652698998</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
-      </c>
-      <c r="I650" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -22876,11 +22326,9 @@
         <v>-57381.98692698998</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
-      </c>
-      <c r="I651" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -22915,11 +22363,9 @@
         <v>-55576.18862698998</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
-      </c>
-      <c r="I652" t="n">
-        <v>215.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -23028,11 +22474,9 @@
         <v>-54749.54212698997</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
-      </c>
-      <c r="I655" t="n">
-        <v>215.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -23067,11 +22511,9 @@
         <v>-54749.54212698997</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
-      </c>
-      <c r="I656" t="n">
-        <v>215.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -23106,11 +22548,9 @@
         <v>-56743.61532698997</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
-      </c>
-      <c r="I657" t="n">
-        <v>215.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -23145,11 +22585,9 @@
         <v>-56743.61532698997</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
-      </c>
-      <c r="I658" t="n">
-        <v>215.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -23184,11 +22622,9 @@
         <v>-54784.01682698997</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
-      </c>
-      <c r="I659" t="n">
-        <v>215.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -23223,11 +22659,9 @@
         <v>-54784.01682698997</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
-      </c>
-      <c r="I660" t="n">
-        <v>215.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -23262,11 +22696,9 @@
         <v>-52720.10262698997</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
-      </c>
-      <c r="I661" t="n">
-        <v>215.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -23301,11 +22733,9 @@
         <v>-52471.42162698998</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
-      </c>
-      <c r="I662" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -23340,11 +22770,9 @@
         <v>-49317.46112698998</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
-      </c>
-      <c r="I663" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -23379,11 +22807,9 @@
         <v>-49317.46112698998</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
-      </c>
-      <c r="I664" t="n">
-        <v>216.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -23455,11 +22881,9 @@
         <v>-50029.71922698998</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
-      </c>
-      <c r="I666" t="n">
-        <v>216.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -23679,11 +23103,9 @@
         <v>-63444.25782698998</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
-      </c>
-      <c r="I672" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -23755,11 +23177,9 @@
         <v>-71117.58822698997</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
-      </c>
-      <c r="I674" t="n">
-        <v>216.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -23831,11 +23251,9 @@
         <v>-69504.74282698997</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
-      </c>
-      <c r="I676" t="n">
-        <v>216.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -23907,11 +23325,9 @@
         <v>-69504.74282698997</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
-      </c>
-      <c r="I678" t="n">
-        <v>216.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
@@ -24094,11 +23510,9 @@
         <v>-74463.56732698997</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
-      </c>
-      <c r="I683" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -24133,11 +23547,9 @@
         <v>-74463.56732698997</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
-      </c>
-      <c r="I684" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
@@ -24172,11 +23584,9 @@
         <v>-74717.14482698997</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
-      </c>
-      <c r="I685" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
@@ -24211,11 +23621,9 @@
         <v>-74895.27802698997</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
-      </c>
-      <c r="I686" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
@@ -24250,11 +23658,9 @@
         <v>-74895.27802698997</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
-      </c>
-      <c r="I687" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -24326,11 +23732,9 @@
         <v>-74895.27802698997</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
-      </c>
-      <c r="I689" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -24365,11 +23769,9 @@
         <v>-74895.27802698997</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
-      </c>
-      <c r="I690" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -24663,11 +24065,9 @@
         <v>-76196.97092698998</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
-      </c>
-      <c r="I698" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
@@ -25183,11 +24583,9 @@
         <v>-76338.75172698998</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
-      </c>
-      <c r="I712" t="n">
-        <v>215.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
@@ -25777,11 +25175,9 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
-      </c>
-      <c r="I728" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -25816,11 +25212,9 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
-      </c>
-      <c r="I729" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -25892,11 +25286,9 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
-      </c>
-      <c r="I731" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -26153,11 +25545,9 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
-      </c>
-      <c r="I738" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -26192,11 +25582,9 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
-      </c>
-      <c r="I739" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -26268,11 +25656,9 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
-      </c>
-      <c r="I741" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -26418,11 +25804,9 @@
         <v>-67637.35962698999</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
-      </c>
-      <c r="I745" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -26457,11 +25841,9 @@
         <v>-67637.35962698999</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
-      </c>
-      <c r="I746" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -26496,11 +25878,9 @@
         <v>-64886.30952698999</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
-      </c>
-      <c r="I747" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -26720,11 +26100,9 @@
         <v>-61123.29522698998</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
-      </c>
-      <c r="I753" t="n">
-        <v>216.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -26759,11 +26137,9 @@
         <v>-61123.29522698998</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
-      </c>
-      <c r="I754" t="n">
-        <v>216.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -26798,11 +26174,9 @@
         <v>-61123.29522698998</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
-      </c>
-      <c r="I755" t="n">
-        <v>216.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
@@ -26837,11 +26211,9 @@
         <v>-61123.29522698998</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
-      </c>
-      <c r="I756" t="n">
-        <v>216.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -26876,11 +26248,9 @@
         <v>-61123.29522698998</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
-      </c>
-      <c r="I757" t="n">
-        <v>216.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -26915,11 +26285,9 @@
         <v>-61123.29522698998</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
-      </c>
-      <c r="I758" t="n">
-        <v>216.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -26954,11 +26322,9 @@
         <v>-60723.29522698998</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
-      </c>
-      <c r="I759" t="n">
-        <v>216.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
@@ -26993,11 +26359,9 @@
         <v>-62778.91552698999</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
-      </c>
-      <c r="I760" t="n">
-        <v>216.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
@@ -27032,11 +26396,9 @@
         <v>-58124.11132698999</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
-      </c>
-      <c r="I761" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -27071,11 +26433,9 @@
         <v>-61843.46782698999</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
-      </c>
-      <c r="I762" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -27332,11 +26692,9 @@
         <v>-61843.46782698999</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
-      </c>
-      <c r="I769" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -27445,11 +26803,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
-      </c>
-      <c r="I772" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -27669,11 +27025,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
-      </c>
-      <c r="I778" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
@@ -27745,11 +27099,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
-      </c>
-      <c r="I780" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
@@ -27784,11 +27136,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
-      </c>
-      <c r="I781" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
@@ -27823,11 +27173,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
-      </c>
-      <c r="I782" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -27862,11 +27210,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
-      </c>
-      <c r="I783" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -27901,11 +27247,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
-      </c>
-      <c r="I784" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -27940,11 +27284,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
-      </c>
-      <c r="I785" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -27979,11 +27321,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
-      </c>
-      <c r="I786" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -28018,11 +27358,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
-      </c>
-      <c r="I787" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -28057,11 +27395,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
-      </c>
-      <c r="I788" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -28133,11 +27469,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
-      </c>
-      <c r="I790" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -28172,11 +27506,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
-      </c>
-      <c r="I791" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -28211,11 +27543,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
-      </c>
-      <c r="I792" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
@@ -28250,11 +27580,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
-      </c>
-      <c r="I793" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -28289,11 +27617,9 @@
         <v>-65882.89652698999</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
-      </c>
-      <c r="I794" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -28513,11 +27839,9 @@
         <v>-60597.87582698999</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
-      </c>
-      <c r="I800" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -28552,11 +27876,9 @@
         <v>-60597.87582698999</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
-      </c>
-      <c r="I801" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -28665,11 +27987,9 @@
         <v>-60597.87582698999</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
-      </c>
-      <c r="I804" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -28704,11 +28024,9 @@
         <v>-60597.87582698999</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
-      </c>
-      <c r="I805" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -28743,11 +28061,9 @@
         <v>-60597.87582698999</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
-      </c>
-      <c r="I806" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -28782,11 +28098,9 @@
         <v>-60597.87582698999</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
-      </c>
-      <c r="I807" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -28821,11 +28135,9 @@
         <v>-60597.87582698999</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
-      </c>
-      <c r="I808" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -28860,11 +28172,9 @@
         <v>-60597.87582698999</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
-      </c>
-      <c r="I809" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -28899,11 +28209,9 @@
         <v>-60597.87582698999</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
-      </c>
-      <c r="I810" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -28938,11 +28246,9 @@
         <v>-60597.87582698999</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
-      </c>
-      <c r="I811" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -28977,11 +28283,9 @@
         <v>-60597.87582698999</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
-      </c>
-      <c r="I812" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -29016,11 +28320,9 @@
         <v>-60156.24762698999</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
-      </c>
-      <c r="I813" t="n">
-        <v>216.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -29092,11 +28394,9 @@
         <v>-60156.24762698999</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
-      </c>
-      <c r="I815" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -29131,11 +28431,9 @@
         <v>-60156.24762698999</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
-      </c>
-      <c r="I816" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -29170,11 +28468,9 @@
         <v>-60156.24762698999</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
-      </c>
-      <c r="I817" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -29209,11 +28505,9 @@
         <v>-60156.24762698999</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
-      </c>
-      <c r="I818" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -29248,11 +28542,9 @@
         <v>-60156.24762698999</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
-      </c>
-      <c r="I819" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -29324,11 +28616,9 @@
         <v>-60156.24762698999</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
-      </c>
-      <c r="I821" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -29363,11 +28653,9 @@
         <v>-60156.24762698999</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
-      </c>
-      <c r="I822" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -29402,11 +28690,9 @@
         <v>-60156.24762698999</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
-      </c>
-      <c r="I823" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -29441,11 +28727,9 @@
         <v>-60156.24762698999</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
-      </c>
-      <c r="I824" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -29480,11 +28764,9 @@
         <v>-56469.16852698999</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
-      </c>
-      <c r="I825" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -29519,11 +28801,9 @@
         <v>-56469.16852698999</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
-      </c>
-      <c r="I826" t="n">
-        <v>216.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -29558,11 +28838,9 @@
         <v>-56469.16852698999</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
-      </c>
-      <c r="I827" t="n">
-        <v>216.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -29634,11 +28912,9 @@
         <v>-59146.52992698999</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
-      </c>
-      <c r="I829" t="n">
-        <v>216.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -29710,11 +28986,9 @@
         <v>-59146.52992698999</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
-      </c>
-      <c r="I831" t="n">
-        <v>216.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -29749,11 +29023,9 @@
         <v>-59146.52992698999</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
-      </c>
-      <c r="I832" t="n">
-        <v>216.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -29788,11 +29060,9 @@
         <v>-59146.52992698999</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
-      </c>
-      <c r="I833" t="n">
-        <v>216.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -29827,11 +29097,9 @@
         <v>-59146.52992698999</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
-      </c>
-      <c r="I834" t="n">
-        <v>216.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -29866,11 +29134,9 @@
         <v>-59146.52992698999</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
-      </c>
-      <c r="I835" t="n">
-        <v>216.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -29905,11 +29171,9 @@
         <v>-59146.52992698999</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
-      </c>
-      <c r="I836" t="n">
-        <v>216.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -29944,11 +29208,9 @@
         <v>-59146.52992698999</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
-      </c>
-      <c r="I837" t="n">
-        <v>216.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -29983,11 +29245,9 @@
         <v>-59146.52992698999</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
-      </c>
-      <c r="I838" t="n">
-        <v>216.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -30022,11 +29282,9 @@
         <v>-55810.42452698999</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
-      </c>
-      <c r="I839" t="n">
-        <v>216.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -30061,11 +29319,9 @@
         <v>-58520.25472698999</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
-      </c>
-      <c r="I840" t="n">
-        <v>216.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -30100,11 +29356,9 @@
         <v>-56910.55832698999</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
-      </c>
-      <c r="I841" t="n">
-        <v>216.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -30139,11 +29393,9 @@
         <v>-54838.41552698999</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
-      </c>
-      <c r="I842" t="n">
-        <v>216.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -30178,11 +29430,9 @@
         <v>-52697.94912698999</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
-      </c>
-      <c r="I843" t="n">
-        <v>216.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -30217,11 +29467,9 @@
         <v>-52697.94912698999</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
-      </c>
-      <c r="I844" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -30256,11 +29504,9 @@
         <v>-48831.35432698999</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
-      </c>
-      <c r="I845" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -30295,11 +29541,9 @@
         <v>-46504.11052698999</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
-      </c>
-      <c r="I846" t="n">
-        <v>217.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -30667,11 +29911,9 @@
         <v>-44247.87672698998</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
-      </c>
-      <c r="I856" t="n">
-        <v>217.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -30706,11 +29948,9 @@
         <v>-46365.52042698998</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
-      </c>
-      <c r="I857" t="n">
-        <v>217.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -30745,11 +29985,9 @@
         <v>-47838.06792698998</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
-      </c>
-      <c r="I858" t="n">
-        <v>217.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -30784,11 +30022,9 @@
         <v>-47838.06792698998</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
-      </c>
-      <c r="I859" t="n">
-        <v>217.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -30823,11 +30059,9 @@
         <v>-47838.06792698998</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
-      </c>
-      <c r="I860" t="n">
-        <v>217.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -30862,11 +30096,9 @@
         <v>-47927.09742698998</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
-      </c>
-      <c r="I861" t="n">
-        <v>217.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -30901,11 +30133,9 @@
         <v>-47927.09742698998</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
-      </c>
-      <c r="I862" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -30940,11 +30170,9 @@
         <v>-47927.09742698998</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
-      </c>
-      <c r="I863" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -30979,11 +30207,9 @@
         <v>-51086.52642698998</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
-      </c>
-      <c r="I864" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -31018,11 +30244,9 @@
         <v>-51086.52642698998</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
-      </c>
-      <c r="I865" t="n">
-        <v>216.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -31057,11 +30281,9 @@
         <v>-51086.52642698998</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
-      </c>
-      <c r="I866" t="n">
-        <v>216.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -31244,11 +30466,9 @@
         <v>-48274.19102698997</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
-      </c>
-      <c r="I871" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -31283,11 +30503,9 @@
         <v>-48274.19102698997</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
-      </c>
-      <c r="I872" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -31322,11 +30540,9 @@
         <v>-48274.19102698997</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
-      </c>
-      <c r="I873" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -31361,11 +30577,9 @@
         <v>-48274.19102698997</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
-      </c>
-      <c r="I874" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -31622,11 +30836,9 @@
         <v>-48274.19102698997</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
-      </c>
-      <c r="I881" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -31661,11 +30873,9 @@
         <v>-48274.19102698997</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
-      </c>
-      <c r="I882" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -31737,11 +30947,9 @@
         <v>-44004.47932698997</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
-      </c>
-      <c r="I884" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -31776,11 +30984,9 @@
         <v>-46508.15592698997</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
-      </c>
-      <c r="I885" t="n">
-        <v>217.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -31815,11 +31021,9 @@
         <v>-46508.15592698997</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
-      </c>
-      <c r="I886" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -32668,16 +31872,18 @@
         <v>-37992.91322698998</v>
       </c>
       <c r="H909" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L909" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L909" t="n">
+        <v>1</v>
+      </c>
       <c r="M909" t="inlineStr"/>
     </row>
     <row r="910">
@@ -32703,11 +31909,15 @@
         <v>-40835.40412698998</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -32740,7 +31950,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -32773,7 +31987,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -32806,7 +32024,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -32839,7 +32061,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -32872,7 +32098,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -32905,7 +32135,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -32938,7 +32172,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -32971,7 +32209,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -33004,7 +32246,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -33037,7 +32283,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -33070,7 +32320,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -33103,7 +32357,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -33136,7 +32394,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -33169,7 +32431,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -33202,7 +32468,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -33235,7 +32505,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -33268,7 +32542,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -33301,7 +32579,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -33334,7 +32616,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -33367,7 +32653,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -33400,7 +32690,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -33433,7 +32727,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -33466,7 +32764,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -33499,7 +32801,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -33532,7 +32838,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -33565,7 +32875,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -33598,7 +32912,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -33631,7 +32949,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -33664,7 +32986,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -33697,7 +33023,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -33730,7 +33060,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -33763,7 +33097,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -33796,7 +33134,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -33829,7 +33171,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -33862,7 +33208,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -33895,7 +33245,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -33928,7 +33282,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -33961,7 +33319,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -33994,7 +33356,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -34027,7 +33393,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -34060,7 +33430,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -34093,7 +33467,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -34126,7 +33504,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -34159,7 +33541,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -34192,7 +33578,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -34225,7 +33615,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -34258,7 +33652,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -34291,7 +33689,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -34324,7 +33726,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -34357,7 +33763,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -34390,7 +33800,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -34419,11 +33833,15 @@
         <v>-10233.75862698997</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -34452,11 +33870,15 @@
         <v>-14915.21742066997</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -34485,11 +33907,15 @@
         <v>-14915.21742066997</v>
       </c>
       <c r="H964" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -34518,11 +33944,15 @@
         <v>-14915.21742066997</v>
       </c>
       <c r="H965" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -34551,11 +33981,15 @@
         <v>-14915.21742066997</v>
       </c>
       <c r="H966" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -34584,11 +34018,15 @@
         <v>-17507.39182066997</v>
       </c>
       <c r="H967" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -34621,7 +34059,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -34650,11 +34092,15 @@
         <v>-26216.35112066998</v>
       </c>
       <c r="H969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -34687,7 +34133,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -34720,7 +34170,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -34753,7 +34207,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -34782,11 +34240,15 @@
         <v>-16690.56242066998</v>
       </c>
       <c r="H973" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -34819,7 +34281,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -34852,7 +34318,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -34885,7 +34355,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -34918,7 +34392,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -34951,7 +34429,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34984,7 +34466,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -35017,7 +34503,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -35046,11 +34536,15 @@
         <v>-11991.19112066997</v>
       </c>
       <c r="H981" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -35079,11 +34573,15 @@
         <v>-13325.30032066997</v>
       </c>
       <c r="H982" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -35112,11 +34610,15 @@
         <v>-8209.377420669975</v>
       </c>
       <c r="H983" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -35145,11 +34647,15 @@
         <v>-8209.377420669975</v>
       </c>
       <c r="H984" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -35178,11 +34684,15 @@
         <v>-11148.52762066997</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -35211,11 +34721,15 @@
         <v>-11709.23632066997</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -35248,7 +34762,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -35281,7 +34799,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -35310,11 +34832,15 @@
         <v>-12150.33872066997</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -35343,11 +34869,15 @@
         <v>-12150.33872066997</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -35376,11 +34906,15 @@
         <v>-12150.33872066997</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -35409,11 +34943,15 @@
         <v>-9887.559920669974</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -35442,11 +34980,15 @@
         <v>-9887.559920669974</v>
       </c>
       <c r="H993" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -35475,11 +35017,15 @@
         <v>-13329.27402066997</v>
       </c>
       <c r="H994" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -35512,7 +35058,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -35545,7 +35095,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -35578,7 +35132,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -35611,7 +35169,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -35644,7 +35206,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -35677,7 +35243,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -35710,7 +35280,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -35743,7 +35317,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -35776,7 +35354,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -35809,7 +35391,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -35838,11 +35424,15 @@
         <v>-19154.60712066997</v>
       </c>
       <c r="H1005" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -35871,11 +35461,15 @@
         <v>-18453.59132066997</v>
       </c>
       <c r="H1006" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -35908,7 +35502,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -35941,7 +35539,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -35974,7 +35576,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -36007,7 +35613,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -36040,7 +35650,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -36073,7 +35687,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -36106,7 +35724,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -36139,7 +35761,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -36172,7 +35798,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -36205,7 +35835,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -36238,7 +35872,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -36271,7 +35909,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -36304,7 +35946,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -36337,7 +35983,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -36370,7 +36020,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -36403,7 +36057,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -36436,7 +36094,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -36469,7 +36131,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -36502,7 +36168,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -36535,7 +36205,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -36568,7 +36242,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -36601,7 +36279,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -36634,7 +36316,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -36667,7 +36353,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -36700,7 +36390,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -36733,7 +36427,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -36766,7 +36464,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -36799,7 +36501,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -36832,7 +36538,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -36865,7 +36575,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -36898,7 +36612,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -36931,7 +36649,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -36960,11 +36682,15 @@
         <v>-2546.200320669969</v>
       </c>
       <c r="H1039" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -36993,11 +36719,15 @@
         <v>-2546.200320669969</v>
       </c>
       <c r="H1040" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -37030,7 +36760,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -37059,11 +36793,15 @@
         <v>-2546.200320669969</v>
       </c>
       <c r="H1042" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -37096,7 +36834,11 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -37129,7 +36871,11 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -37162,7 +36908,11 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -37195,7 +36945,11 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -37228,7 +36982,11 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -37261,7 +37019,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -37294,7 +37056,11 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -37327,7 +37093,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -37360,7 +37130,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -37393,7 +37167,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -37426,7 +37204,11 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -37455,14 +37237,16 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
-      <c r="L1054" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1054" t="inlineStr"/>
       <c r="M1054" t="inlineStr"/>
     </row>
     <row r="1055">
@@ -37686,7 +37470,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -37719,7 +37503,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -37752,7 +37536,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -37785,7 +37569,7 @@
         <v>969.4269793300307</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -37818,7 +37602,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -37851,7 +37635,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -37884,7 +37668,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -37917,7 +37701,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -37950,7 +37734,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -37983,7 +37767,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -38016,7 +37800,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -38049,7 +37833,7 @@
         <v>4633.544279330031</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -38082,7 +37866,7 @@
         <v>109.5469793300308</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -38115,7 +37899,7 @@
         <v>109.5469793300308</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -38148,7 +37932,7 @@
         <v>109.5469793300308</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -38181,7 +37965,7 @@
         <v>109.5469793300308</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -38214,7 +37998,7 @@
         <v>-3142.153320669969</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -38247,7 +38031,7 @@
         <v>-1791.764420669969</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -38280,7 +38064,7 @@
         <v>-1791.764420669969</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -38313,7 +38097,7 @@
         <v>-5535.121720669969</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -38346,7 +38130,7 @@
         <v>-3476.50852066997</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -38379,7 +38163,7 @@
         <v>-1082.25582066997</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -38412,7 +38196,7 @@
         <v>-1082.25582066997</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -38445,7 +38229,7 @@
         <v>-1082.25582066997</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -38478,7 +38262,7 @@
         <v>-1082.25582066997</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -38511,7 +38295,7 @@
         <v>-1082.25582066997</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -38544,7 +38328,7 @@
         <v>-1082.25582066997</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -38577,7 +38361,7 @@
         <v>-1082.25582066997</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -38610,7 +38394,7 @@
         <v>-1082.25582066997</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -38643,7 +38427,7 @@
         <v>-1082.25582066997</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -38676,7 +38460,7 @@
         <v>-1082.25582066997</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -38709,7 +38493,7 @@
         <v>-1082.25582066997</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -38742,7 +38526,7 @@
         <v>2582.991979330031</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -38775,7 +38559,7 @@
         <v>2582.991979330031</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -38808,7 +38592,7 @@
         <v>2582.991979330031</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -38841,7 +38625,7 @@
         <v>2582.991979330031</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -38874,7 +38658,7 @@
         <v>2582.991979330031</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -38907,7 +38691,7 @@
         <v>2582.991979330031</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38940,7 +38724,7 @@
         <v>2582.991979330031</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38973,7 +38757,7 @@
         <v>2582.991979330031</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -39006,7 +38790,7 @@
         <v>2582.991979330031</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -39039,7 +38823,7 @@
         <v>2582.991979330031</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -39072,7 +38856,7 @@
         <v>2582.991979330031</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -39105,7 +38889,7 @@
         <v>2582.991979330031</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -39138,7 +38922,7 @@
         <v>2582.991979330031</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -39171,7 +38955,7 @@
         <v>2582.991979330031</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -39204,7 +38988,7 @@
         <v>3985.63577933003</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -39237,7 +39021,7 @@
         <v>3985.63577933003</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -39270,7 +39054,7 @@
         <v>3985.63577933003</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -39303,7 +39087,7 @@
         <v>3985.63577933003</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -39369,7 +39153,7 @@
         <v>3985.63577933003</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -39600,7 +39384,7 @@
         <v>4839.47337933003</v>
       </c>
       <c r="H1119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -39633,7 +39417,7 @@
         <v>4839.47337933003</v>
       </c>
       <c r="H1120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -39666,7 +39450,7 @@
         <v>4839.47337933003</v>
       </c>
       <c r="H1121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -39699,7 +39483,7 @@
         <v>7142.59167933003</v>
       </c>
       <c r="H1122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -39732,7 +39516,7 @@
         <v>8441.90047933003</v>
       </c>
       <c r="H1123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -39765,7 +39549,7 @@
         <v>6654.69097933003</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -39798,7 +39582,7 @@
         <v>6654.69097933003</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -39831,7 +39615,7 @@
         <v>8158.60967933003</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -39864,7 +39648,7 @@
         <v>7404.809079330031</v>
       </c>
       <c r="H1127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -39897,7 +39681,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -39930,7 +39714,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -39963,7 +39747,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -39996,7 +39780,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -40029,7 +39813,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -40062,7 +39846,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -40095,7 +39879,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -40128,7 +39912,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -40161,7 +39945,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -40194,7 +39978,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -40227,7 +40011,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -40260,7 +40044,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -40293,7 +40077,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -40326,7 +40110,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -40359,7 +40143,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -40392,7 +40176,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -40425,7 +40209,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -40458,7 +40242,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -40491,7 +40275,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -40524,7 +40308,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -40557,7 +40341,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -40590,7 +40374,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -40623,7 +40407,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -40656,7 +40440,7 @@
         <v>3935.114279330031</v>
       </c>
       <c r="H1151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -40689,7 +40473,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -40722,7 +40506,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -40755,7 +40539,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -40788,7 +40572,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -40821,7 +40605,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -40854,7 +40638,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -40887,7 +40671,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -40920,7 +40704,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -40953,7 +40737,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -40986,7 +40770,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -41019,7 +40803,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -41052,7 +40836,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -41085,7 +40869,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -41118,7 +40902,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -41151,7 +40935,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -41184,7 +40968,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -41217,7 +41001,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -41250,7 +41034,7 @@
         <v>5649.674079330031</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -41283,7 +41067,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
@@ -41316,7 +41100,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -41349,7 +41133,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -41382,7 +41166,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -41415,7 +41199,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -41448,7 +41232,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -41481,7 +41265,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -41514,7 +41298,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -41547,7 +41331,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -41580,7 +41364,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -41613,7 +41397,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
@@ -41646,7 +41430,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
@@ -41679,7 +41463,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
@@ -41712,7 +41496,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
@@ -41745,7 +41529,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -41778,7 +41562,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
@@ -41811,7 +41595,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
@@ -41844,7 +41628,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
@@ -41877,7 +41661,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
@@ -41910,7 +41694,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
@@ -41943,7 +41727,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
@@ -41976,7 +41760,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
@@ -42009,7 +41793,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
@@ -42042,7 +41826,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
@@ -42075,7 +41859,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
@@ -42108,7 +41892,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
@@ -42141,7 +41925,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
@@ -42174,7 +41958,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
@@ -42207,7 +41991,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -42240,7 +42024,7 @@
         <v>8659.699379330032</v>
       </c>
       <c r="H1199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -42273,7 +42057,7 @@
         <v>8386.603379330032</v>
       </c>
       <c r="H1200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -42306,7 +42090,7 @@
         <v>8386.603379330032</v>
       </c>
       <c r="H1201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
@@ -42339,7 +42123,7 @@
         <v>8386.603379330032</v>
       </c>
       <c r="H1202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
@@ -42372,7 +42156,7 @@
         <v>8386.603379330032</v>
       </c>
       <c r="H1203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
@@ -42405,7 +42189,7 @@
         <v>8386.603379330032</v>
       </c>
       <c r="H1204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
@@ -42438,7 +42222,7 @@
         <v>8386.603379330032</v>
       </c>
       <c r="H1205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
@@ -42471,7 +42255,7 @@
         <v>8386.603379330032</v>
       </c>
       <c r="H1206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
@@ -42504,7 +42288,7 @@
         <v>8386.603379330032</v>
       </c>
       <c r="H1207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
@@ -42537,7 +42321,7 @@
         <v>8267.338379330033</v>
       </c>
       <c r="H1208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
@@ -42570,7 +42354,7 @@
         <v>8267.338379330033</v>
       </c>
       <c r="H1209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
@@ -42603,7 +42387,7 @@
         <v>8267.338379330033</v>
       </c>
       <c r="H1210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
@@ -42636,7 +42420,7 @@
         <v>8267.338379330033</v>
       </c>
       <c r="H1211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
@@ -42669,7 +42453,7 @@
         <v>8267.338379330033</v>
       </c>
       <c r="H1212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
@@ -42702,7 +42486,7 @@
         <v>8267.338379330033</v>
       </c>
       <c r="H1213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
@@ -42735,7 +42519,7 @@
         <v>8267.338379330033</v>
       </c>
       <c r="H1214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
@@ -42768,7 +42552,7 @@
         <v>11159.24241791003</v>
       </c>
       <c r="H1215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
@@ -42801,7 +42585,7 @@
         <v>10491.65591791003</v>
       </c>
       <c r="H1216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
@@ -42834,7 +42618,7 @@
         <v>10491.65591791003</v>
       </c>
       <c r="H1217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
@@ -42867,7 +42651,7 @@
         <v>10491.65591791003</v>
       </c>
       <c r="H1218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
@@ -42900,7 +42684,7 @@
         <v>10491.65591791003</v>
       </c>
       <c r="H1219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
@@ -42933,7 +42717,7 @@
         <v>10491.65591791003</v>
       </c>
       <c r="H1220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
@@ -42966,7 +42750,7 @@
         <v>10491.65591791003</v>
       </c>
       <c r="H1221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
@@ -42999,7 +42783,7 @@
         <v>5518.405217910034</v>
       </c>
       <c r="H1222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
@@ -43032,7 +42816,7 @@
         <v>5342.657617910034</v>
       </c>
       <c r="H1223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
@@ -43065,7 +42849,7 @@
         <v>1657.407117910034</v>
       </c>
       <c r="H1224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
@@ -43098,7 +42882,7 @@
         <v>-5288.970982089966</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
@@ -43131,7 +42915,7 @@
         <v>-8070.409882089966</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
@@ -43164,7 +42948,7 @@
         <v>-8070.409882089966</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
@@ -43197,7 +42981,7 @@
         <v>-10202.49868208997</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
@@ -43230,7 +43014,7 @@
         <v>-18406.00208208997</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
@@ -43263,7 +43047,7 @@
         <v>-18406.00208208997</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
@@ -43296,7 +43080,7 @@
         <v>-18406.00208208997</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
@@ -43329,7 +43113,7 @@
         <v>-18406.00208208997</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
@@ -43362,7 +43146,7 @@
         <v>-24288.92828208997</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
@@ -43395,7 +43179,7 @@
         <v>-25856.38758208997</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
@@ -43428,7 +43212,7 @@
         <v>-32602.80098208997</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
@@ -43461,7 +43245,7 @@
         <v>-32602.80098208997</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
@@ -43758,17 +43542,11 @@
         <v>-28080.41618208997</v>
       </c>
       <c r="H1245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>214.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -43801,11 +43579,7 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -43838,11 +43612,7 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -43875,11 +43645,7 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -43912,11 +43678,7 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -43949,11 +43711,7 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -43986,11 +43744,7 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -44023,11 +43777,7 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1252" t="inlineStr"/>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -44060,11 +43810,7 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -44097,11 +43843,7 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -44134,11 +43876,7 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -44171,11 +43909,7 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1256" t="inlineStr"/>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -44208,11 +43942,7 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1257" t="inlineStr"/>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -44245,11 +43975,7 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1258" t="inlineStr"/>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -44282,11 +44008,7 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1259" t="inlineStr"/>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -44319,11 +44041,7 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -44352,17 +44070,11 @@
         <v>-34802.98538208997</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1261" t="n">
-        <v>214.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -44391,17 +44103,11 @@
         <v>-32767.94738208997</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1262" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -44430,17 +44136,11 @@
         <v>-32767.94738208997</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1263" t="n">
-        <v>215.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -44469,17 +44169,11 @@
         <v>-28174.21762717997</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1264" t="n">
-        <v>215.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -44512,11 +44206,7 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1265" t="inlineStr"/>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -44549,11 +44239,7 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1266" t="inlineStr"/>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -44586,11 +44272,7 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1267" t="inlineStr"/>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -44623,11 +44305,7 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1268" t="inlineStr"/>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -44660,17 +44338,13 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1269" t="inlineStr"/>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
       <c r="M1269" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>